--- a/medicine/Enfance/William_Earl_Johns/William_Earl_Johns.xlsx
+++ b/medicine/Enfance/William_Earl_Johns/William_Earl_Johns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Earl Johns, né le 5 février 1893 à Bengeo (en), dans le Hertfordshire, et mort le 21 juin 1968 dans le borough londonien de Richmond upon Thames, est un pilote de chasse, puis, sous les pseudonymes William Earle et Captain W. E. Johns, un romancier britannique, auteur de littérature d'enfance et de jeunesse abordant tour à tour le genre policier, la science-fiction et les romans d'aventures, de guerre et d'espionnage. Il est principalement connu comme créateur de l'aventurier et as de l'aviation Biggles.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière militaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit à Swaffham (Norfolk) et est inspecteur sanitaire quand il s'engage en 1913 comme simple soldat dans l'armée territoriale. Son régiment, le King's Own Royal Regiment, est mobilisé en août 1914 et est envoyé outremer en septembre 1915, où il combat à Gallipoli (péninsule Turque) avant d'être déplacé vers le canal de Suez en décembre de la même année.
 Johns est ensuite transféré vers le Machine Gun Corps en septembre 1916, où il sert sur le front grec avant d'être hospitalisé pour malaria. Après sa guérison il est affecté au Royal Flying Corps (composante aérienne de l'armée de terre) en septembre 1917, et rapatrié en Angleterre pour y apprendre à piloter.
@@ -546,14 +560,16 @@
           <t>L'écrivain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En quittant la RAF, il devient correspondant aéronautique pour la presse, et correcteur et illustrateur de livres d'aviation. Son premier roman, Mossyface, est publié en 1922.
 À la demande de l'éditeur John Hammond Ltd., il crée le magazine "Popular Flying" qui paraît pour la première fois en mars 1932. C'est dans ces pages que naît le personnage de Biggles, dans un récit intitulé "The White Fokker". Le premier titre publié mettant en scène Biggles, un recueil d'histoires intitulé The Camels Are Coming, paraît en août 1932. La série comptera près de 100 volumes. 
-Selon la chronologie des aventures, et non celle des parutions, le premier exploit de Biggles, une figure investie des plus hautes valeurs morales, n'est publié qu'en 1951 sous le titre Biggles entre en scène (Biggles Go to School, 1951) et raconte comment le héros « résout une énigme policière délicate alors qu'il n'est, en ces années 1910, qu'un adolescent. Il devient ensuite le héros de récits de guerre qui se déroulent pendant le premier conflit mondial, puis de romans d'aventures dans l'entre-deux-guerres, et de nouveau de récits de guerre et d'espionnage entre 1939 et 1945, dans lesquels il est régulièrement opposé à son ennemi intime, l'Allemand Von Stahlein »[1]. Après la Seconde Guerre mondiale, Biggles, dont les aventures se déroulent à l'occasion dans des cadres exotiques, devient un membre de la police de l'air et pourchasse des contrebandiers, des agents secrets ou de malins voleurs internationaux. Unique à l'époque dans ce type de littérature, Johns utilise, dès 1935, un personnage de la classe laborieuse comme équipier de Biggles : Ginger Habblethwaite (Hebblethwaite, par la suite), fils d'un mineur de Northumberland.
+Selon la chronologie des aventures, et non celle des parutions, le premier exploit de Biggles, une figure investie des plus hautes valeurs morales, n'est publié qu'en 1951 sous le titre Biggles entre en scène (Biggles Go to School, 1951) et raconte comment le héros « résout une énigme policière délicate alors qu'il n'est, en ces années 1910, qu'un adolescent. Il devient ensuite le héros de récits de guerre qui se déroulent pendant le premier conflit mondial, puis de romans d'aventures dans l'entre-deux-guerres, et de nouveau de récits de guerre et d'espionnage entre 1939 et 1945, dans lesquels il est régulièrement opposé à son ennemi intime, l'Allemand Von Stahlein ». Après la Seconde Guerre mondiale, Biggles, dont les aventures se déroulent à l'occasion dans des cadres exotiques, devient un membre de la police de l'air et pourchasse des contrebandiers, des agents secrets ou de malins voleurs internationaux. Unique à l'époque dans ce type de littérature, Johns utilise, dès 1935, un personnage de la classe laborieuse comme équipier de Biggles : Ginger Habblethwaite (Hebblethwaite, par la suite), fils d'un mineur de Northumberland.
 Les titres de la série des aventures de Biggles sont d'abord signés du pseudonyme William Earle, avant l'apparition de celui de Captain W. E. Johns, devenu célèbre (un grade qu'il s'est, en fait, autodécerné).
 Johns édite Popular Flying et l'hebdomadaire Flying jusqu'au début de 1939. Il en est évincé à la suite de pressions du gouvernement pour son opposition à la politique d'"appeasement" (apaisement). À cette époque, il écrit des romans, des récits courts et des articles pour des magazines.
-Il continue à écrire du Biggles, dont près d'une centaine d'aventures ont été publiées jusqu'à la mort de Johns en 1968. Bien qu'étant son personnage le plus connu, Biggles n'est pas unique. On peut ainsi trouver dans sa production des histoires sur le capitaine commando Lorrington "Gimlet" King (King et ses brigands, 1951), le « chef d'une troupe de commandos qui évolue dans des récits de guerre, puis dans des intrigues policières »[2] ; sur l'aviatrice Joan "Worrals" Worralson, une sorte de Biggles au féminin, créée à la demande du Ministère de l'Air pour inciter les femmes à rejoindre la WAAF (Women's Auxiliary Air Force) ; et sur l'astronaute (ex-RAF, naturellement) Group Captain Timothy "Tiger" Clinton, qui va pour la première fois dans l'espace en 1954.
+Il continue à écrire du Biggles, dont près d'une centaine d'aventures ont été publiées jusqu'à la mort de Johns en 1968. Bien qu'étant son personnage le plus connu, Biggles n'est pas unique. On peut ainsi trouver dans sa production des histoires sur le capitaine commando Lorrington "Gimlet" King (King et ses brigands, 1951), le « chef d'une troupe de commandos qui évolue dans des récits de guerre, puis dans des intrigues policières » ; sur l'aviatrice Joan "Worrals" Worralson, une sorte de Biggles au féminin, créée à la demande du Ministère de l'Air pour inciter les femmes à rejoindre la WAAF (Women's Auxiliary Air Force) ; et sur l'astronaute (ex-RAF, naturellement) Group Captain Timothy "Tiger" Clinton, qui va pour la première fois dans l'espace en 1954.
 William Earl Johns a également signé des romans policiers sans héros récurrent.
 </t>
         </is>
@@ -585,16 +601,61 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Série Biggles
-Série Steeley
-Sky High (1936) Publié en français sous le titre L'Avion noir, Paris, Presses de la Cité, 1952
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Steeley</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sky High (1936) Publié en français sous le titre L'Avion noir, Paris, Presses de la Cité, 1952
 Steeley Flies Again (1936) Publié en français sous le titre Tout va bien, Paris, Presses de la Cité, 1953
 Murder by Air (1937) Publié en français sous le titre La Piste du chien blanc, Paris, Presses de la Cité, 1952
 Murder at Castle Deeping (1938) Publié en français sous le titre Château fort et faux billets, Paris, Presses de la Cité, 1952
-Wings of Romance (1939) Publié en français sous le titre Aventuriers de l'air, Paris, Presses de la Cité, 1949
-Série Joan "Worrals" Worralson
-Worrals of the W.A.A.F. (1941) Publié en français sous le titre Worrals de la R.A.F., Paris, Presses de la Cité, 1952
+Wings of Romance (1939) Publié en français sous le titre Aventuriers de l'air, Paris, Presses de la Cité, 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Joan "Worrals" Worralson</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Worrals of the W.A.A.F. (1941) Publié en français sous le titre Worrals de la R.A.F., Paris, Presses de la Cité, 1952
 Worrals Flies Again (1942) Publié en français sous le titre Worrals courrier secret, Paris, Presses de la Cité, 1951
 Worrals Carries On (1942) Publié en français sous le titre Un exploit de Worrals, Paris, Hachette, 1951
 Worrals on the War-Path (1943) Publié en français sous le titre Worrals en mission, Paris, Arthaud, 1947
@@ -604,9 +665,47 @@
 Worrals Down Under (1948)
 Worrals Goes Afoot (1949) Publié en français sous le titre Le Démon des sables, Paris, Presses de la Cité, 1950
 Worrals in the Wastelands (1949)
-Worrals Investigates (1950)
-Série Lorrington "Gimlet" King
-King of the Commandos (1943) Publié en français sous le titre King et ses hommes, Paris, Presses de la Cité, 1947
+Worrals Investigates (1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Lorrington "Gimlet" King</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>King of the Commandos (1943) Publié en français sous le titre King et ses hommes, Paris, Presses de la Cité, 1947
 Gimlet Goes Again (1944) Publié en français sous le titre Commandos en France, Paris, Presses de la Cité, 1945
 Gimlet Comes Home (1946) Publié en français sous le titre Retour de King, Paris, Presses de la Cité, 1947
 Gimlet Mops Up (1947) Publié en français sous le titre King et les Loups-garous, Paris, Presses de la Cité, 1947
@@ -615,9 +714,47 @@
 Gimlet Bores In (1950)
 Gimlet Off the Map (1951)
 Gimlet Gets the Answer (1952) Publié en français sous le titre King répond à tout, Paris, Presses de la Cité, 1953
-Gimlet Takes a Job (1954)
-Série Timothy "Tiger" Clinton
-Kings of Space (1954)
+Gimlet Takes a Job (1954)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Timothy "Tiger" Clinton</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kings of Space (1954)
 Return to Mars (1955)
 Now to the Stars (1956)
 To Outer Space (1957)
@@ -626,9 +763,47 @@
 To Worlds Unknown (1960)
 The Quest for the Perfect Planet (1961)
 Worlds of Wonder (1962)
-The Man Who Vanished into Space (1963)
-Autres romans
-Mossyface (1922), signé William Earle Publié en français sous le titre Mossyface, Paris, Miklo, dans le volume Biggles l'intégrale no 1, 2001
+The Man Who Vanished into Space (1963)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mossyface (1922), signé William Earle Publié en français sous le titre Mossyface, Paris, Miklo, dans le volume Biggles l'intégrale no 1, 2001
 Wings Flying Adventure (1923)
 The Spy Flyers (1933) Publié en français sous le titre Espions de l'air, Paris, Presses de la Cité, 1952
 The Raid (1935)
@@ -644,14 +819,82 @@
 No Motive for Murder (1958) Publié en français sous le titre Motif d'enquête, Paris, Presses de la Cité, 1959
 The Man Who Lost His Way (1959) Publié en français sous le titre L'Homme qui perdit son chemin, Paris, Presses de la Cité, 1959
 Adventures of the Junior Detective Club (1960) Publié en français sous le titre La Jeune Équipe, Paris, Presses de la Cité, 1963
-Where the Golden Eagle Soars (1960)
-Recueils de nouvelles
-Comrades in Arms (1947)
+Where the Golden Eagle Soars (1960)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Comrades in Arms (1947)
 Doctor Vane Answers the Call (1950) Publié en français sous le titre La Momie égyptienne, Paris, Presses de la Cité, 1951
 Short Sorties (1950) Publié en français sous le titre L'Oasis perdue, Paris, Presses de la Cité, 1950
-Sky Fever: And Other Stories (1953)
-Autres publications
-The Modern Boy's Book of Aircraft (1931)
+Sky Fever: And Other Stories (1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Earl_Johns</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Modern Boy's Book of Aircraft (1931)
 Fighting Planes and Aces (1932)
 Pictorial Flying Course (1932), en collaboration avec Harry M Schofield
 The Air VCs (1935)
